--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:47:54+00:00</t>
+    <t>2025-12-25T09:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:53:19+00:00</t>
+    <t>2025-12-25T10:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:01:16+00:00</t>
+    <t>2025-12-25T10:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:09:41+00:00</t>
+    <t>2025-12-25T10:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:22:11+00:00</t>
+    <t>2025-12-25T10:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:31:12+00:00</t>
+    <t>2025-12-25T10:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:39:21+00:00</t>
+    <t>2025-12-25T10:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:44:58+00:00</t>
+    <t>2025-12-25T23:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T23:47:50+00:00</t>
+    <t>2025-12-26T00:02:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:02:21+00:00</t>
+    <t>2025-12-26T00:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:05:34+00:00</t>
+    <t>2025-12-26T00:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:13:32+00:00</t>
+    <t>2025-12-26T00:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:14:27+00:00</t>
+    <t>2025-12-26T00:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:35:52+00:00</t>
+    <t>2025-12-26T00:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:40:38+00:00</t>
+    <t>2025-12-26T00:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:44:33+00:00</t>
+    <t>2025-12-26T01:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:02:00+00:00</t>
+    <t>2025-12-26T01:05:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:05:32+00:00</t>
+    <t>2025-12-26T01:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:36:34+00:00</t>
+    <t>2025-12-26T01:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:59:09+00:00</t>
+    <t>2025-12-26T02:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T02:26:51+00:00</t>
+    <t>2025-12-26T10:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:04:19+00:00</t>
+    <t>2025-12-26T10:13:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:13:27+00:00</t>
+    <t>2025-12-26T10:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:16:19+00:00</t>
+    <t>2025-12-26T10:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:24:22+00:00</t>
+    <t>2025-12-26T10:42:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:42:17+00:00</t>
+    <t>2025-12-26T10:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:50:19+00:00</t>
+    <t>2025-12-26T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:20:10+00:00</t>
+    <t>2025-12-26T11:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:23:52+00:00</t>
+    <t>2025-12-26T11:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:26:31+00:00</t>
+    <t>2025-12-26T11:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:27:38+00:00</t>
+    <t>2025-12-26T11:28:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:28:30+00:00</t>
+    <t>2025-12-26T11:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:29:16+00:00</t>
+    <t>2025-12-26T11:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:01+00:00</t>
+    <t>2025-12-26T11:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:54+00:00</t>
+    <t>2025-12-26T11:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:31:25+00:00</t>
+    <t>2025-12-26T11:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:15+00:00</t>
+    <t>2025-12-26T11:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:54+00:00</t>
+    <t>2025-12-26T11:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:01+00:00</t>
+    <t>2025-12-26T11:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:23+00:00</t>
+    <t>2025-12-26T11:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:47+00:00</t>
+    <t>2025-12-26T11:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:36:15+00:00</t>
+    <t>2025-12-26T11:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:47:29+00:00</t>
+    <t>2025-12-26T12:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:00:12+00:00</t>
+    <t>2025-12-26T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:02:28+00:00</t>
+    <t>2025-12-26T12:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:06:48+00:00</t>
+    <t>2025-12-26T12:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:07:46+00:00</t>
+    <t>2025-12-26T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:14:29+00:00</t>
+    <t>2025-12-26T12:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://open-nursing-core.org/CodeSystem/onc-observation-codes</t>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:21:51+00:00</t>
+    <t>2025-12-26T14:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,21 +108,24 @@
     <t>Count</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>mst-score</t>
   </si>
   <si>
@@ -130,6 +133,267 @@
   </si>
   <si>
     <t>Assessment of skin tone using the Monk Skin Tone Scale</t>
+  </si>
+  <si>
+    <t>waterlow-score</t>
+  </si>
+  <si>
+    <t>Waterlow Score</t>
+  </si>
+  <si>
+    <t>Total score for Waterlow pressure ulcer risk assessment</t>
+  </si>
+  <si>
+    <t>must-score</t>
+  </si>
+  <si>
+    <t>MUST Score</t>
+  </si>
+  <si>
+    <t>Malnutrition Universal Screening Tool total score</t>
+  </si>
+  <si>
+    <t>must-bmi-score</t>
+  </si>
+  <si>
+    <t>MUST BMI Score</t>
+  </si>
+  <si>
+    <t>Malnutrition Universal Screening Tool BMI score</t>
+  </si>
+  <si>
+    <t>must-weight-loss-score</t>
+  </si>
+  <si>
+    <t>MUST Weight Loss Score</t>
+  </si>
+  <si>
+    <t>Malnutrition Universal Screening Tool weight loss score</t>
+  </si>
+  <si>
+    <t>must-acute-disease-score</t>
+  </si>
+  <si>
+    <t>MUST Acute Disease Score</t>
+  </si>
+  <si>
+    <t>Malnutrition Universal Screening Tool acute disease effect score</t>
+  </si>
+  <si>
+    <t>braden-total-score</t>
+  </si>
+  <si>
+    <t>Braden Total Score</t>
+  </si>
+  <si>
+    <t>Braden scale total score</t>
+  </si>
+  <si>
+    <t>braden-sensory</t>
+  </si>
+  <si>
+    <t>Braden Sensory Perception</t>
+  </si>
+  <si>
+    <t>Sensory perception Braden scale</t>
+  </si>
+  <si>
+    <t>braden-moisture</t>
+  </si>
+  <si>
+    <t>Braden Moisture</t>
+  </si>
+  <si>
+    <t>Moisture Braden scale</t>
+  </si>
+  <si>
+    <t>braden-activity</t>
+  </si>
+  <si>
+    <t>Braden Activity</t>
+  </si>
+  <si>
+    <t>Activity Braden scale</t>
+  </si>
+  <si>
+    <t>braden-mobility</t>
+  </si>
+  <si>
+    <t>Braden Mobility</t>
+  </si>
+  <si>
+    <t>Mobility Braden scale</t>
+  </si>
+  <si>
+    <t>braden-nutrition</t>
+  </si>
+  <si>
+    <t>Braden Nutrition</t>
+  </si>
+  <si>
+    <t>Nutrition Braden scale</t>
+  </si>
+  <si>
+    <t>braden-friction</t>
+  </si>
+  <si>
+    <t>Braden Friction/Shear</t>
+  </si>
+  <si>
+    <t>Friction and shear Braden scale</t>
+  </si>
+  <si>
+    <t>barthel-score</t>
+  </si>
+  <si>
+    <t>Barthel Index Score</t>
+  </si>
+  <si>
+    <t>Total score for Barthel Index assessment</t>
+  </si>
+  <si>
+    <t>news2-score</t>
+  </si>
+  <si>
+    <t>NEWS2 Score</t>
+  </si>
+  <si>
+    <t>National Early Warning Score 2 Total Score</t>
+  </si>
+  <si>
+    <t>news2-subscore</t>
+  </si>
+  <si>
+    <t>NEWS2 Sub-score</t>
+  </si>
+  <si>
+    <t>Sub-score for NEWS2 parameter</t>
+  </si>
+  <si>
+    <t>wound-stage</t>
+  </si>
+  <si>
+    <t>Wound Stage</t>
+  </si>
+  <si>
+    <t>Stage of the wound</t>
+  </si>
+  <si>
+    <t>stage-1</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 1 pressure ulcer</t>
+  </si>
+  <si>
+    <t>stage-2</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 2 pressure ulcer</t>
+  </si>
+  <si>
+    <t>stage-3</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 3 pressure ulcer</t>
+  </si>
+  <si>
+    <t>stage-4</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 4 pressure ulcer</t>
+  </si>
+  <si>
+    <t>unstageable</t>
+  </si>
+  <si>
+    <t>Unstageable</t>
+  </si>
+  <si>
+    <t>Unstageable pressure ulcer</t>
+  </si>
+  <si>
+    <t>deep-tissue</t>
+  </si>
+  <si>
+    <t>Deep Tissue Injury</t>
+  </si>
+  <si>
+    <t>Deep tissue injury</t>
+  </si>
+  <si>
+    <t>risk-falls</t>
+  </si>
+  <si>
+    <t>Risk of Falls</t>
+  </si>
+  <si>
+    <t>Risk of falls diagnosis</t>
+  </si>
+  <si>
+    <t>fitzpatrick-1</t>
+  </si>
+  <si>
+    <t>Type I</t>
+  </si>
+  <si>
+    <t>Pale white; always burns, never tans</t>
+  </si>
+  <si>
+    <t>fitzpatrick-2</t>
+  </si>
+  <si>
+    <t>Type II</t>
+  </si>
+  <si>
+    <t>White; usually burns, tans with difficulty</t>
+  </si>
+  <si>
+    <t>fitzpatrick-3</t>
+  </si>
+  <si>
+    <t>Type III</t>
+  </si>
+  <si>
+    <t>Cream white; sometimes mild burn, gradually tans</t>
+  </si>
+  <si>
+    <t>fitzpatrick-4</t>
+  </si>
+  <si>
+    <t>Type IV</t>
+  </si>
+  <si>
+    <t>Moderate brown; rarely burns, tans with ease</t>
+  </si>
+  <si>
+    <t>fitzpatrick-5</t>
+  </si>
+  <si>
+    <t>Type V</t>
+  </si>
+  <si>
+    <t>Dark brown; very rarely burns, tans very easily</t>
+  </si>
+  <si>
+    <t>fitzpatrick-6</t>
+  </si>
+  <si>
+    <t>Type VI</t>
+  </si>
+  <si>
+    <t>Deeply pigmented dark brown to black; never burns, tans very easily</t>
   </si>
 </sst>
 </file>
@@ -428,7 +692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,16 +714,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:28:37+00:00</t>
+    <t>2025-12-26T14:29:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:29:21+00:00</t>
+    <t>2025-12-26T14:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:36:57+00:00</t>
+    <t>2025-12-26T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:04+00:00</t>
+    <t>2025-12-26T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:51+00:00</t>
+    <t>2025-12-26T15:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>30</t>
+    <t>48</t>
   </si>
   <si>
     <t>Level</t>
@@ -394,6 +394,168 @@
   </si>
   <si>
     <t>Deeply pigmented dark brown to black; never burns, tans very easily</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters to Me</t>
+  </si>
+  <si>
+    <t>Patient-identified priorities and non-clinical goals</t>
+  </si>
+  <si>
+    <t>patient-story</t>
+  </si>
+  <si>
+    <t>Patient Story</t>
+  </si>
+  <si>
+    <t>Narrative summary of patient background, preferences, and autobiography</t>
+  </si>
+  <si>
+    <t>relational-engagement</t>
+  </si>
+  <si>
+    <t>Relational Engagement Score</t>
+  </si>
+  <si>
+    <t>Assessment of the quality of nurse-patient engagement (1-5)</t>
+  </si>
+  <si>
+    <t>cfs-score</t>
+  </si>
+  <si>
+    <t>Clinical Frailty Scale Score</t>
+  </si>
+  <si>
+    <t>Total score for Rockwood Clinical Frailty Scale</t>
+  </si>
+  <si>
+    <t>cfs-1</t>
+  </si>
+  <si>
+    <t>Very Fit</t>
+  </si>
+  <si>
+    <t>Robus, active, energetic and motivated</t>
+  </si>
+  <si>
+    <t>cfs-2</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>No active disease symptoms but less fit than category 1</t>
+  </si>
+  <si>
+    <t>cfs-3</t>
+  </si>
+  <si>
+    <t>Managing Well</t>
+  </si>
+  <si>
+    <t>Medical problems are well controlled, but not regularly active</t>
+  </si>
+  <si>
+    <t>cfs-4</t>
+  </si>
+  <si>
+    <t>Vulnerable</t>
+  </si>
+  <si>
+    <t>Not dependent for daily help, but symptoms limit activities</t>
+  </si>
+  <si>
+    <t>cfs-5</t>
+  </si>
+  <si>
+    <t>Mildly Frail</t>
+  </si>
+  <si>
+    <t>Need help with high order IADLs (finances, transportation, heavy housework)</t>
+  </si>
+  <si>
+    <t>cfs-6</t>
+  </si>
+  <si>
+    <t>Moderately Frail</t>
+  </si>
+  <si>
+    <t>Need help with all outside activities and some housekeeping</t>
+  </si>
+  <si>
+    <t>cfs-7</t>
+  </si>
+  <si>
+    <t>Severely Frail</t>
+  </si>
+  <si>
+    <t>Completely dependent for personal care</t>
+  </si>
+  <si>
+    <t>cfs-8</t>
+  </si>
+  <si>
+    <t>Very Severely Frail</t>
+  </si>
+  <si>
+    <t>Completely dependent, approaching end of life</t>
+  </si>
+  <si>
+    <t>cfs-9</t>
+  </si>
+  <si>
+    <t>Terminally Ill</t>
+  </si>
+  <si>
+    <t>Approaching the end of life (life expectancy &lt;6 months)</t>
+  </si>
+  <si>
+    <t>4at-score</t>
+  </si>
+  <si>
+    <t>4AT Delirium Score</t>
+  </si>
+  <si>
+    <t>Total score for 4AT assessment</t>
+  </si>
+  <si>
+    <t>4at-alertness</t>
+  </si>
+  <si>
+    <t>Alertness</t>
+  </si>
+  <si>
+    <t>4AT Item 1: Alertness</t>
+  </si>
+  <si>
+    <t>4at-amt4</t>
+  </si>
+  <si>
+    <t>AMT4 Score</t>
+  </si>
+  <si>
+    <t>4AT Item 2: Abbreviated Mental Test 4</t>
+  </si>
+  <si>
+    <t>4at-attention</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>4AT Item 3: Attention (Months Backwards)</t>
+  </si>
+  <si>
+    <t>4at-acute-change</t>
+  </si>
+  <si>
+    <t>Acute Change</t>
+  </si>
+  <si>
+    <t>4AT Item 4: Acute Change or Fluctuating Course</t>
   </si>
 </sst>
 </file>
@@ -692,7 +854,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1132,6 +1294,258 @@
         <v>126</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:08:13+00:00</t>
+    <t>2026-01-01T16:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>48</t>
+    <t>121</t>
   </si>
   <si>
     <t>Level</t>
@@ -556,6 +556,657 @@
   </si>
   <si>
     <t>4AT Item 4: Acute Change or Fluctuating Course</t>
+  </si>
+  <si>
+    <t>reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>Reasonable Adjustment</t>
+  </si>
+  <si>
+    <t>Requirement for adjustment to care delivery (Equality Act)</t>
+  </si>
+  <si>
+    <t>mca-assessment</t>
+  </si>
+  <si>
+    <t>Mental Capacity Assessment</t>
+  </si>
+  <si>
+    <t>Assessment of capacity to make a specific decision</t>
+  </si>
+  <si>
+    <t>capacity-present</t>
+  </si>
+  <si>
+    <t>Capacity Present</t>
+  </si>
+  <si>
+    <t>Patient has capacity for this decision</t>
+  </si>
+  <si>
+    <t>capacity-absent</t>
+  </si>
+  <si>
+    <t>Capacity Absent</t>
+  </si>
+  <si>
+    <t>Patient lacks capacity for this decision</t>
+  </si>
+  <si>
+    <t>best-interest</t>
+  </si>
+  <si>
+    <t>Best Interest Decision</t>
+  </si>
+  <si>
+    <t>Decision made in patient's best interest</t>
+  </si>
+  <si>
+    <t>bristol-score</t>
+  </si>
+  <si>
+    <t>Bristol Stool Score</t>
+  </si>
+  <si>
+    <t>Bristol Stool Form Scale Score (1-7)</t>
+  </si>
+  <si>
+    <t>bristol-1</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Separate hard lumps, like nuts (hard to pass)</t>
+  </si>
+  <si>
+    <t>bristol-2</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Sausage-shaped but lumpy</t>
+  </si>
+  <si>
+    <t>bristol-3</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>Like a sausage but with cracks on its surface</t>
+  </si>
+  <si>
+    <t>bristol-4</t>
+  </si>
+  <si>
+    <t>Type 4</t>
+  </si>
+  <si>
+    <t>Like a sausage or snake, smooth and soft</t>
+  </si>
+  <si>
+    <t>bristol-5</t>
+  </si>
+  <si>
+    <t>Type 5</t>
+  </si>
+  <si>
+    <t>Soft blobs with clear-cut edges (passed easily)</t>
+  </si>
+  <si>
+    <t>bristol-6</t>
+  </si>
+  <si>
+    <t>Type 6</t>
+  </si>
+  <si>
+    <t>Fluffy pieces with ragged edges, a mushy stool</t>
+  </si>
+  <si>
+    <t>bristol-7</t>
+  </si>
+  <si>
+    <t>Type 7</t>
+  </si>
+  <si>
+    <t>Watery, no solid pieces. Entirely liquid</t>
+  </si>
+  <si>
+    <t>abbey-score</t>
+  </si>
+  <si>
+    <t>Abbey Pain Scale Score</t>
+  </si>
+  <si>
+    <t>Total Abbey Pain Scale Score (0-100+ but usually 0-18+)</t>
+  </si>
+  <si>
+    <t>abbey-vocalization</t>
+  </si>
+  <si>
+    <t>Vocalization</t>
+  </si>
+  <si>
+    <t>Whimpering, groaning, crying</t>
+  </si>
+  <si>
+    <t>abbey-facial-expression</t>
+  </si>
+  <si>
+    <t>Facial Expression</t>
+  </si>
+  <si>
+    <t>Looking tense, frowning, grimacing, looking frightened</t>
+  </si>
+  <si>
+    <t>abbey-body-language</t>
+  </si>
+  <si>
+    <t>Body Language</t>
+  </si>
+  <si>
+    <t>Fidgeting, rocking, guarding part of body, withdrawn</t>
+  </si>
+  <si>
+    <t>abbey-behavioral-change</t>
+  </si>
+  <si>
+    <t>Behavioral Change</t>
+  </si>
+  <si>
+    <t>Increased confusion, refusing to eat, alteration in usual pattern</t>
+  </si>
+  <si>
+    <t>abbey-psychological-change</t>
+  </si>
+  <si>
+    <t>Psychological Change</t>
+  </si>
+  <si>
+    <t>Temperature, pulse, blood pressure changes, perspiration, pallor</t>
+  </si>
+  <si>
+    <t>abbey-physical-changes</t>
+  </si>
+  <si>
+    <t>Physical Changes</t>
+  </si>
+  <si>
+    <t>Skin tears, pressure areas, arthritis, contractures, previous injuries</t>
+  </si>
+  <si>
+    <t>fluid-input-total</t>
+  </si>
+  <si>
+    <t>Total Fluid Input</t>
+  </si>
+  <si>
+    <t>Total fluid input over specified period (e.g. 24h)</t>
+  </si>
+  <si>
+    <t>fluid-output-total</t>
+  </si>
+  <si>
+    <t>Total Fluid Output</t>
+  </si>
+  <si>
+    <t>Total fluid output over specified period (e.g. 24h)</t>
+  </si>
+  <si>
+    <t>fluid-balance</t>
+  </si>
+  <si>
+    <t>Fluid Balance</t>
+  </si>
+  <si>
+    <t>Total Input minus Total Output</t>
+  </si>
+  <si>
+    <t>urine-output</t>
+  </si>
+  <si>
+    <t>Urine Output</t>
+  </si>
+  <si>
+    <t>Volume of urine passed</t>
+  </si>
+  <si>
+    <t>abc-chart</t>
+  </si>
+  <si>
+    <t>ABC Chart</t>
+  </si>
+  <si>
+    <t>Antecedent-Behaviour-Consequence Chart for PBS</t>
+  </si>
+  <si>
+    <t>abc-antecedent</t>
+  </si>
+  <si>
+    <t>Antecedent</t>
+  </si>
+  <si>
+    <t>What happened immediately before the behaviour (triggers)</t>
+  </si>
+  <si>
+    <t>abc-behaviour</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Description of the behaviour itself (observable actions)</t>
+  </si>
+  <si>
+    <t>abc-consequence</t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>What happened immediately after (response/outcome)</t>
+  </si>
+  <si>
+    <t>abc-function</t>
+  </si>
+  <si>
+    <t>Function of Behaviour</t>
+  </si>
+  <si>
+    <t>Hypothesized function (e.g. Sensory, Escape, Attention, Tangible)</t>
+  </si>
+  <si>
+    <t>abc-duration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration of the episode</t>
+  </si>
+  <si>
+    <t>abc-intensity</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Intensity of the behaviour (1-10)</t>
+  </si>
+  <si>
+    <t>oral-health-score</t>
+  </si>
+  <si>
+    <t>Oral Health Score</t>
+  </si>
+  <si>
+    <t>Total Oral Health Assessment Score</t>
+  </si>
+  <si>
+    <t>oral-lips</t>
+  </si>
+  <si>
+    <t>Lips</t>
+  </si>
+  <si>
+    <t>Condition of lips (Pink/Moist vs Dry/Cracked)</t>
+  </si>
+  <si>
+    <t>oral-tongue</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>Condition of tongue (Pink/Moist vs Coated/Red)</t>
+  </si>
+  <si>
+    <t>oral-gums</t>
+  </si>
+  <si>
+    <t>Gums</t>
+  </si>
+  <si>
+    <t>Condition of gums (Pink/Firm vs Bleeding/Receding)</t>
+  </si>
+  <si>
+    <t>oral-teeth</t>
+  </si>
+  <si>
+    <t>Teeth/Dentures</t>
+  </si>
+  <si>
+    <t>Condition of teeth or dentures (Clean/Intact vs Decayed/Broken/Loose)</t>
+  </si>
+  <si>
+    <t>oral-saliva</t>
+  </si>
+  <si>
+    <t>Saliva</t>
+  </si>
+  <si>
+    <t>Saliva quality (Moist/Watery vs Thick/Sticky/Absent)</t>
+  </si>
+  <si>
+    <t>seizure-record</t>
+  </si>
+  <si>
+    <t>Seizure Record</t>
+  </si>
+  <si>
+    <t>Record of a seizure event</t>
+  </si>
+  <si>
+    <t>seizure-type</t>
+  </si>
+  <si>
+    <t>Seizure Type</t>
+  </si>
+  <si>
+    <t>Type of seizure (Tonic-Clonic, Absence, Focal, etc)</t>
+  </si>
+  <si>
+    <t>seizure-duration</t>
+  </si>
+  <si>
+    <t>Seizure Duration</t>
+  </si>
+  <si>
+    <t>Duration of the active seizure phase</t>
+  </si>
+  <si>
+    <t>seizure-recovery</t>
+  </si>
+  <si>
+    <t>Recovery Phase</t>
+  </si>
+  <si>
+    <t>Duration/Description of post-ictal recovery</t>
+  </si>
+  <si>
+    <t>seizure-trigger</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Suspected trigger for the seizure</t>
+  </si>
+  <si>
+    <t>sleep-record</t>
+  </si>
+  <si>
+    <t>Sleep Record</t>
+  </si>
+  <si>
+    <t>Record of a sleep period</t>
+  </si>
+  <si>
+    <t>sleep-quality</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Subjective or observed quality of sleep</t>
+  </si>
+  <si>
+    <t>sleep-hours</t>
+  </si>
+  <si>
+    <t>Hours Slept</t>
+  </si>
+  <si>
+    <t>Total hours of sleep achieved</t>
+  </si>
+  <si>
+    <t>sleep-disturbances</t>
+  </si>
+  <si>
+    <t>Disturbances</t>
+  </si>
+  <si>
+    <t>Number or description of distinct awakenings</t>
+  </si>
+  <si>
+    <t>urinalysis-panel</t>
+  </si>
+  <si>
+    <t>Urinalysis Panel</t>
+  </si>
+  <si>
+    <t>Urine Dipstick Test Panel</t>
+  </si>
+  <si>
+    <t>ua-leukocytes</t>
+  </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Leukocytes (WBCs) in urine</t>
+  </si>
+  <si>
+    <t>ua-nitrites</t>
+  </si>
+  <si>
+    <t>Nitrites</t>
+  </si>
+  <si>
+    <t>Nitrites in urine</t>
+  </si>
+  <si>
+    <t>ua-protein</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Protein in urine</t>
+  </si>
+  <si>
+    <t>ua-blood</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Blood (Hemoglobin) in urine</t>
+  </si>
+  <si>
+    <t>ua-glucose</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Glucose in urine</t>
+  </si>
+  <si>
+    <t>ua-ketones</t>
+  </si>
+  <si>
+    <t>Ketones</t>
+  </si>
+  <si>
+    <t>Ketones in urine</t>
+  </si>
+  <si>
+    <t>ua-ph</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Urine pH Level</t>
+  </si>
+  <si>
+    <t>ua-sg</t>
+  </si>
+  <si>
+    <t>Specific Gravity</t>
+  </si>
+  <si>
+    <t>Urine Specific Gravity</t>
+  </si>
+  <si>
+    <t>mca-present</t>
+  </si>
+  <si>
+    <t>4at-change-no</t>
+  </si>
+  <si>
+    <t>No Acute Change</t>
+  </si>
+  <si>
+    <t>No indication of acute change or fluctuating course</t>
+  </si>
+  <si>
+    <t>4at-amt4-1error</t>
+  </si>
+  <si>
+    <t>1 Error</t>
+  </si>
+  <si>
+    <t>1 error in AMT4 test</t>
+  </si>
+  <si>
+    <t>4at-attention-gt7</t>
+  </si>
+  <si>
+    <t>Months Backwards &lt; 7 months</t>
+  </si>
+  <si>
+    <t>Less than 7 months correctly recited backwards</t>
+  </si>
+  <si>
+    <t>4at-alert-normal</t>
+  </si>
+  <si>
+    <t>Normal Alertness</t>
+  </si>
+  <si>
+    <t>Patient is fully alert</t>
+  </si>
+  <si>
+    <t>continence-assessment</t>
+  </si>
+  <si>
+    <t>Continence Assessment</t>
+  </si>
+  <si>
+    <t>Assessment of bladder and bowel control</t>
+  </si>
+  <si>
+    <t>bladder-assessment</t>
+  </si>
+  <si>
+    <t>Bladder Assessment</t>
+  </si>
+  <si>
+    <t>Detailed assessment of bladder function</t>
+  </si>
+  <si>
+    <t>bowel-assessment</t>
+  </si>
+  <si>
+    <t>Bowel Assessment</t>
+  </si>
+  <si>
+    <t>Detailed assessment of bowel function</t>
+  </si>
+  <si>
+    <t>catheter-care</t>
+  </si>
+  <si>
+    <t>Catheter Care Interaction</t>
+  </si>
+  <si>
+    <t>Nursing interaction related to catheter care</t>
+  </si>
+  <si>
+    <t>oral-intake</t>
+  </si>
+  <si>
+    <t>Oral Intake Assessment</t>
+  </si>
+  <si>
+    <t>Assessment of food and fluid intake capability</t>
+  </si>
+  <si>
+    <t>swallowing</t>
+  </si>
+  <si>
+    <t>Swallowing Assessment</t>
+  </si>
+  <si>
+    <t>Assessment of swallowing ability (dysphagia risk)</t>
+  </si>
+  <si>
+    <t>dietary-requirements</t>
+  </si>
+  <si>
+    <t>Dietary Requirements</t>
+  </si>
+  <si>
+    <t>Specific dietary needs or restrictions</t>
+  </si>
+  <si>
+    <t>mobility</t>
+  </si>
+  <si>
+    <t>Mobility Assessment</t>
+  </si>
+  <si>
+    <t>Assessment of physical mobility and transfer ability</t>
+  </si>
+  <si>
+    <t>device-use</t>
+  </si>
+  <si>
+    <t>Device/Aid Usage</t>
+  </si>
+  <si>
+    <t>Observation of device or mobility aid usage</t>
+  </si>
+  <si>
+    <t>hygiene-needs</t>
+  </si>
+  <si>
+    <t>Personal Hygiene Needs</t>
+  </si>
+  <si>
+    <t>Assessment of assistance required for hygiene</t>
+  </si>
+  <si>
+    <t>oral-care</t>
+  </si>
+  <si>
+    <t>Oral Care Needs</t>
+  </si>
+  <si>
+    <t>Assessment of oral health and care requirements</t>
+  </si>
+  <si>
+    <t>medication-ability</t>
+  </si>
+  <si>
+    <t>Medication Management Ability</t>
+  </si>
+  <si>
+    <t>Ability to manage own medications</t>
+  </si>
+  <si>
+    <t>medication-self-admin</t>
+  </si>
+  <si>
+    <t>Medication Self-Administration</t>
+  </si>
+  <si>
+    <t>Observation of self-administration technique</t>
   </si>
 </sst>
 </file>
@@ -854,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1546,6 +2197,1028 @@
         <v>180</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes</t>
+    <t>https://opennursingcoreig.com/CodeSystem/onc-observation-codes</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,12 +57,15 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:27:10+00:00</t>
+    <t>2026-01-02T23:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>The Open Nursing Community</t>
+  </si>
+  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -108,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>121</t>
+    <t>131</t>
   </si>
   <si>
     <t>Level</t>
@@ -673,6 +676,96 @@
   </si>
   <si>
     <t>Watery, no solid pieces. Entirely liquid</t>
+  </si>
+  <si>
+    <t>adpie-a</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Assessment phase of the nursing process</t>
+  </si>
+  <si>
+    <t>adpie-d</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Diagnosis phase of the nursing process</t>
+  </si>
+  <si>
+    <t>adpie-p</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Planning phase of the nursing process</t>
+  </si>
+  <si>
+    <t>adpie-i</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Implementation phase of the nursing process</t>
+  </si>
+  <si>
+    <t>adpie-e</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation phase of the nursing process</t>
+  </si>
+  <si>
+    <t>empathy-1</t>
+  </si>
+  <si>
+    <t>Low Empathy</t>
+  </si>
+  <si>
+    <t>Task-focused interaction with minimal person-centred engagement.</t>
+  </si>
+  <si>
+    <t>empathy-2</t>
+  </si>
+  <si>
+    <t>Basic Empathy</t>
+  </si>
+  <si>
+    <t>Professional interaction with patient identity acknowledged.</t>
+  </si>
+  <si>
+    <t>empathy-3</t>
+  </si>
+  <si>
+    <t>Moderate Empathy</t>
+  </si>
+  <si>
+    <t>Active relational engagement with shared decision making.</t>
+  </si>
+  <si>
+    <t>empathy-4</t>
+  </si>
+  <si>
+    <t>High Empathy</t>
+  </si>
+  <si>
+    <t>Authentic partnership with deep understanding of patient experience.</t>
+  </si>
+  <si>
+    <t>empathy-5</t>
+  </si>
+  <si>
+    <t>Relational Excellence</t>
+  </si>
+  <si>
+    <t>Flourishing partnership with total alignment on 'What Matters to Me'.</t>
   </si>
   <si>
     <t>abbey-score</t>
@@ -1416,86 +1509,88 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1513,1710 +1608,1850 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>189</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>376</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-observation-codes.xlsx
+++ b/CodeSystem-onc-observation-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
